--- a/src/helpers/usuarios.xlsx
+++ b/src/helpers/usuarios.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>sd</t>
   </si>
@@ -54,10 +54,28 @@
     <t>edgarrios412@gmail.com</t>
   </si>
   <si>
-    <t>PEPITO PALO</t>
-  </si>
-  <si>
-    <t>VILCHEZ</t>
+    <t>EDGAR DAVID</t>
+  </si>
+  <si>
+    <t>VILCHEZ RIOS</t>
+  </si>
+  <si>
+    <t>JOSE FERNANDO</t>
+  </si>
+  <si>
+    <t>BARBOSA MORALES</t>
+  </si>
+  <si>
+    <t>teldip@gmail.com</t>
+  </si>
+  <si>
+    <t>OTRA PERSONA</t>
+  </si>
+  <si>
+    <t>xpersonax@gmail.com</t>
+  </si>
+  <si>
+    <t>xpersonax@gmail.co</t>
   </si>
 </sst>
 </file>
@@ -386,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,9 +449,54 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>3119288888</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>23123</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/helpers/usuarios.xlsx
+++ b/src/helpers/usuarios.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>sd</t>
   </si>
@@ -51,31 +51,13 @@
     <t>clave</t>
   </si>
   <si>
-    <t>edgarrios412@gmail.com</t>
-  </si>
-  <si>
     <t>EDGAR DAVID</t>
   </si>
   <si>
     <t>VILCHEZ RIOS</t>
   </si>
   <si>
-    <t>JOSE FERNANDO</t>
-  </si>
-  <si>
-    <t>BARBOSA MORALES</t>
-  </si>
-  <si>
-    <t>teldip@gmail.com</t>
-  </si>
-  <si>
-    <t>OTRA PERSONA</t>
-  </si>
-  <si>
-    <t>xpersonax@gmail.com</t>
-  </si>
-  <si>
-    <t>xpersonax@gmail.co</t>
+    <t>e@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -404,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,69 +416,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>12121212</v>
       </c>
       <c r="E2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>3119288888</v>
-      </c>
-      <c r="E3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>23123</v>
-      </c>
-      <c r="E4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
